--- a/CHAU/Huy Nguyen/Summary.xlsx
+++ b/CHAU/Huy Nguyen/Summary.xlsx
@@ -5,19 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xyu\Desktop\AP\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\4. AS project\CHAU\Huy Nguyen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,15 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Tổng số Testcase:</t>
-  </si>
-  <si>
-    <t>Đã hoàn thành:</t>
-  </si>
-  <si>
-    <t>Còn lại:</t>
   </si>
   <si>
     <t>Passed:</t>
@@ -64,6 +51,15 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>Total Testcase:</t>
+  </si>
+  <si>
+    <t>Complete:</t>
+  </si>
+  <si>
+    <t>Remain:</t>
   </si>
 </sst>
 </file>
@@ -144,20 +140,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -439,11 +435,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$15:$B$20</c15:sqref>
+                    <c15:sqref>'Test Summary'!$B$15:$B$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$18:$B$20</c:f>
+              <c:f>'Test Summary'!$B$18:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -463,11 +459,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$15:$D$20</c15:sqref>
+                    <c15:sqref>'Test Summary'!$D$15:$D$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$18:$D$20</c:f>
+              <c:f>'Test Summary'!$D$18:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -687,10 +683,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$15:$B$20</c15:sqref>
+                          <c15:sqref>'Test Summary'!$B$15:$B$20</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$18:$B$20</c15:sqref>
+                          <c15:sqref>'Test Summary'!$B$18:$B$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -713,10 +709,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$C$15:$C$20</c15:sqref>
+                          <c15:sqref>'Test Summary'!$C$15:$C$20</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$18:$C$20</c15:sqref>
+                          <c15:sqref>'Test Summary'!$C$18:$C$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1404,95 +1400,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Testcase Specification"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Revision history"/>
-      <sheetName val="List Feature"/>
-      <sheetName val="Test Objectives"/>
-      <sheetName val="Testcase Specification"/>
-      <sheetName val="Testcase v1"/>
-      <sheetName val="Report"/>
-      <sheetName val="Parameter"/>
-      <sheetName val="Testcase Sprint 1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Tổng số Testcase:</v>
-          </cell>
-          <cell r="D2">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Đã hoàn thành:</v>
-          </cell>
-          <cell r="D3">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Còn lại:</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Passed:</v>
-          </cell>
-          <cell r="D5">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Failed:</v>
-          </cell>
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Block:</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1759,7 +1666,7 @@
   <dimension ref="B3:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="N4" sqref="N4:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,299 +1676,299 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1">
         <v>45</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2">
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1">
         <v>53</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2">
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="1">
         <v>6</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="2">
+      <c r="N4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1">
         <v>45</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2">
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1">
         <v>53</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2">
+      <c r="J5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="1">
         <v>6</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="2">
+      <c r="N5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2">
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2">
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="2">
+      <c r="N6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1">
         <v>32</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2">
+      <c r="F7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1">
         <v>50</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2">
+      <c r="J7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="2">
+      <c r="N7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2">
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2">
+      <c r="F8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2">
+      <c r="J8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="2">
+      <c r="N8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2">
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2">
+      <c r="F9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2">
+      <c r="J9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="2">
+      <c r="N9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2">
         <f>1-(D6/D4)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5">
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2">
         <f>1-(H6/H4)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2">
         <f>1-(L6/L4)</f>
         <v>1</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2">
         <f>1-(P6/P4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2">
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1">
         <f>D4+H4+L4+P4</f>
         <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2">
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1">
         <f>D5+H5+L5+P5</f>
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2">
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1">
         <f>D7+H7+L7+P7</f>
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2">
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1">
         <f>D8+H8+L8+P8</f>
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2">
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1">
         <f>D9+H9+L9+P9</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2">
         <f>1-(D17/D15)</f>
         <v>1</v>
       </c>
